--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_properties.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_properties.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R7a551e8a5d214c17"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R5bdaa9616bf7407f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_properties.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_properties.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R5bdaa9616bf7407f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R0a76797339f54e35"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_properties.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_properties.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R0a76797339f54e35"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R02726b491a314960"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_properties.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_properties.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R02726b491a314960"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R3f7808a4890f4cc3"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_properties.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_properties.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R3f7808a4890f4cc3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R7a6d8d25a3094510"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_properties.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_properties.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R7a6d8d25a3094510"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R0974ffeb8ecb4738"/>
   </x:sheets>
 </x:workbook>
 </file>
